--- a/Enemies.xlsx
+++ b/Enemies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="396" documentId="8_{96904638-352F-43DA-8B3D-0DA27A513CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0DE59FD-638E-428C-9AA1-70FCB7319AB7}"/>
+  <xr:revisionPtr revIDLastSave="401" documentId="8_{96904638-352F-43DA-8B3D-0DA27A513CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97564D89-DEF1-487C-88F3-40F3C8D2490C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="197">
   <si>
     <t>HP</t>
   </si>
@@ -3747,8 +3747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88884B47-C774-4C3D-B20B-C576C6118EDC}">
   <dimension ref="C4:PJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="FY4" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="GU4" sqref="GU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5570,7 +5570,7 @@
     <row r="6" spans="3:426" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C6" s="2"/>
       <c r="D6" s="5">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E6" s="5">
         <v>20</v>
@@ -6699,7 +6699,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="3:426" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:426" ht="30.75" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
         <v>10</v>
@@ -7117,7 +7117,7 @@
       <c r="FT7" s="33"/>
       <c r="FU7" s="33"/>
       <c r="FV7" s="25" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="FX7" s="33"/>
       <c r="FY7" s="33"/>
@@ -7126,7 +7126,7 @@
       <c r="GB7" s="33"/>
       <c r="GC7" s="33"/>
       <c r="GD7" s="25" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="GF7" s="33"/>
       <c r="GG7" s="33"/>
@@ -7726,7 +7726,7 @@
     <row r="8" spans="3:426" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" s="9">
         <v>127</v>

--- a/Enemies.xlsx
+++ b/Enemies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="401" documentId="8_{96904638-352F-43DA-8B3D-0DA27A513CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97564D89-DEF1-487C-88F3-40F3C8D2490C}"/>
+  <xr:revisionPtr revIDLastSave="419" documentId="8_{96904638-352F-43DA-8B3D-0DA27A513CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BC81E87-0BC0-4F38-AAA3-4F47308175CA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="203">
   <si>
     <t>HP</t>
   </si>
@@ -100,12 +100,6 @@
     <t>Multi-Punch</t>
   </si>
   <si>
-    <t>Gato's Song of Love</t>
-  </si>
-  <si>
-    <t>Tonic (Potion)</t>
-  </si>
-  <si>
     <t>Present - Guardia Forest</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>Sentry</t>
   </si>
   <si>
-    <t>Smoke</t>
-  </si>
-  <si>
     <t>Ether</t>
   </si>
   <si>
@@ -184,15 +175,9 @@
     <t>Clamp</t>
   </si>
   <si>
-    <t>Ink / Blind</t>
-  </si>
-  <si>
     <t>Cave Stalker</t>
   </si>
   <si>
-    <t>Shield (Shield Sphere)</t>
-  </si>
-  <si>
     <t>Osmose / Absorb MP</t>
   </si>
   <si>
@@ -205,21 +190,12 @@
     <t>Rhino Weevil</t>
   </si>
   <si>
-    <t>Mid Tonic (Mid-Potion)</t>
-  </si>
-  <si>
     <t>Spin Jump</t>
   </si>
   <si>
     <t>Boundillo</t>
   </si>
   <si>
-    <t>Revive (Athenian Water)</t>
-  </si>
-  <si>
-    <t>Sonic Wave / Sleep</t>
-  </si>
-  <si>
     <t>Bloodfeast / Absorbs HP</t>
   </si>
   <si>
@@ -286,9 +262,6 @@
     <t>Roundillo Rider</t>
   </si>
   <si>
-    <t>Heal (Panacea)</t>
-  </si>
-  <si>
     <t>Peck</t>
   </si>
   <si>
@@ -617,6 +590,36 @@
   </si>
   <si>
     <t>Fear</t>
+  </si>
+  <si>
+    <t>Ding-a-ling</t>
+  </si>
+  <si>
+    <t>Flame</t>
+  </si>
+  <si>
+    <t>Ding-a-Ling</t>
+  </si>
+  <si>
+    <t>Ink</t>
+  </si>
+  <si>
+    <t>Osmose 1</t>
+  </si>
+  <si>
+    <t>Sonic Wave</t>
+  </si>
+  <si>
+    <t>Tonic</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Mid Tonic</t>
+  </si>
+  <si>
+    <t>Revive</t>
   </si>
 </sst>
 </file>
@@ -3747,8 +3750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88884B47-C774-4C3D-B20B-C576C6118EDC}">
   <dimension ref="C4:PJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FY4" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="GU4" sqref="GU4"/>
+    <sheetView tabSelected="1" topLeftCell="IP2" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="IV6" sqref="IV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4170,7 +4173,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -4180,7 +4183,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -4190,7 +4193,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -4200,7 +4203,7 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
@@ -4210,7 +4213,7 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
@@ -4220,7 +4223,7 @@
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
       <c r="AY4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
@@ -4230,7 +4233,7 @@
       <c r="BE4" s="2"/>
       <c r="BF4" s="2"/>
       <c r="BG4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
@@ -4240,7 +4243,7 @@
       <c r="BM4" s="2"/>
       <c r="BN4" s="2"/>
       <c r="BO4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
@@ -4250,7 +4253,7 @@
       <c r="BU4" s="2"/>
       <c r="BV4" s="2"/>
       <c r="BW4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BX4" s="2"/>
       <c r="BY4" s="2"/>
@@ -4260,7 +4263,7 @@
       <c r="CC4" s="2"/>
       <c r="CD4" s="2"/>
       <c r="CE4" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="CF4" s="2"/>
       <c r="CG4" s="2"/>
@@ -4270,7 +4273,7 @@
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
       <c r="CM4" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="CN4" s="2"/>
       <c r="CO4" s="2"/>
@@ -4280,7 +4283,7 @@
       <c r="CS4" s="2"/>
       <c r="CT4" s="2"/>
       <c r="CU4" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="CV4" s="2"/>
       <c r="CW4" s="2"/>
@@ -4290,7 +4293,7 @@
       <c r="DA4" s="2"/>
       <c r="DB4" s="2"/>
       <c r="DC4" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="DD4" s="2"/>
       <c r="DE4" s="2"/>
@@ -4300,7 +4303,7 @@
       <c r="DI4" s="2"/>
       <c r="DJ4" s="2"/>
       <c r="DK4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="DL4" s="2"/>
       <c r="DM4" s="2"/>
@@ -4310,7 +4313,7 @@
       <c r="DQ4" s="2"/>
       <c r="DR4" s="2"/>
       <c r="DS4" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="DT4" s="2"/>
       <c r="DU4" s="2"/>
@@ -4320,119 +4323,119 @@
       <c r="DY4" s="2"/>
       <c r="DZ4" s="2"/>
       <c r="EA4" s="40" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="EB4" s="2"/>
       <c r="EC4" s="2"/>
       <c r="ED4" s="2"/>
       <c r="EE4" s="2"/>
       <c r="EI4" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="EQ4" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="EY4" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="FG4" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="EQ4" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="EY4" s="40" t="s">
+      <c r="FO4" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="FG4" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="FO4" s="40" t="s">
-        <v>94</v>
-      </c>
       <c r="FW4" s="40" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="GE4" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="GM4" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="GU4" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="HC4" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="GM4" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="GU4" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="HC4" s="40" t="s">
-        <v>110</v>
-      </c>
       <c r="HK4" s="40" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="HS4" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="IA4" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="II4" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="IA4" s="40" t="s">
+      <c r="IQ4" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="II4" s="40" t="s">
+      <c r="IY4" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="JG4" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="IQ4" s="40" t="s">
+      <c r="JO4" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="JW4" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="IY4" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="JG4" s="40" t="s">
+      <c r="KE4" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="JO4" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="JW4" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="KE4" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="KM4" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="KU4" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="LC4" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="LK4" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="KU4" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="LC4" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="LK4" s="40" t="s">
-        <v>150</v>
-      </c>
       <c r="LS4" s="40" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="MA4" s="40" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="MI4" s="40" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="MQ4" s="40" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="MY4" s="40" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="NG4" s="40" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="NO4" s="40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="NW4" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="OE4" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="OM4" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="OE4" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="OM4" s="40" t="s">
-        <v>187</v>
-      </c>
       <c r="OU4" s="40" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="PC4" s="40" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="3:426" ht="16.5" x14ac:dyDescent="0.2">
@@ -5582,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>8</v>
@@ -5607,10 +5610,10 @@
         <v>8</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="5">
@@ -5632,7 +5635,7 @@
         <v>8</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="5">
@@ -5654,7 +5657,7 @@
         <v>8</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="5">
@@ -5673,10 +5676,10 @@
         <v>8</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="5">
@@ -5692,13 +5695,13 @@
         <v>45</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="AX6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AY6" s="2"/>
       <c r="AZ6" s="5">
@@ -5717,10 +5720,10 @@
         <v>8</v>
       </c>
       <c r="BE6" s="5" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="BF6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="BG6" s="2"/>
       <c r="BH6" s="5">
@@ -5736,13 +5739,13 @@
         <v>55</v>
       </c>
       <c r="BL6" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BM6" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BN6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="BO6" s="2"/>
       <c r="BP6" s="6">
@@ -5764,7 +5767,7 @@
         <v>8</v>
       </c>
       <c r="BV6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="BW6" s="2"/>
       <c r="BX6" s="5">
@@ -5786,7 +5789,7 @@
         <v>8</v>
       </c>
       <c r="CD6" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="CE6" s="2"/>
       <c r="CF6" s="5">
@@ -5802,13 +5805,13 @@
         <v>50</v>
       </c>
       <c r="CJ6" s="5" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="CK6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="CL6" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="CM6" s="2"/>
       <c r="CN6" s="5">
@@ -5830,7 +5833,7 @@
         <v>8</v>
       </c>
       <c r="CT6" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="CU6" s="2"/>
       <c r="CV6" s="5">
@@ -5846,13 +5849,13 @@
         <v>50</v>
       </c>
       <c r="CZ6" s="5" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="DA6" s="5" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="DB6" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="DC6" s="2"/>
       <c r="DD6" s="5">
@@ -5868,13 +5871,13 @@
         <v>55</v>
       </c>
       <c r="DH6" s="5" t="s">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="DI6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="DJ6" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="DK6" s="2"/>
       <c r="DL6" s="5">
@@ -5896,7 +5899,7 @@
         <v>8</v>
       </c>
       <c r="DR6" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="DS6" s="2"/>
       <c r="DT6" s="5">
@@ -5918,7 +5921,7 @@
         <v>8</v>
       </c>
       <c r="DZ6" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="EA6" s="2"/>
       <c r="EB6" s="24">
@@ -5934,13 +5937,13 @@
         <v>24</v>
       </c>
       <c r="EF6" s="24" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="EG6" s="24" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="EH6" s="24" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="EJ6" s="24">
         <v>24</v>
@@ -5958,10 +5961,10 @@
         <v>8</v>
       </c>
       <c r="EO6" s="24" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="EP6" s="24" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="ER6" s="25">
         <v>99</v>
@@ -5976,13 +5979,13 @@
         <v>35</v>
       </c>
       <c r="EV6" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="EW6" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="EX6" s="25" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="EZ6" s="24">
         <v>30</v>
@@ -6003,7 +6006,7 @@
         <v>8</v>
       </c>
       <c r="FF6" s="24" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="FH6" s="25">
         <v>16</v>
@@ -6018,13 +6021,13 @@
         <v>32</v>
       </c>
       <c r="FL6" s="25" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="FM6" s="25" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="FN6" s="25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="FP6" s="24">
         <v>60</v>
@@ -6045,7 +6048,7 @@
         <v>8</v>
       </c>
       <c r="FV6" s="24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="FX6" s="24">
         <v>90</v>
@@ -6060,13 +6063,13 @@
         <v>70</v>
       </c>
       <c r="GB6" s="24" t="s">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="GC6" s="24" t="s">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="GD6" s="24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="GF6" s="24">
         <v>50</v>
@@ -6087,7 +6090,7 @@
         <v>8</v>
       </c>
       <c r="GL6" s="24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="GN6" s="24">
         <v>49</v>
@@ -6108,7 +6111,7 @@
         <v>8</v>
       </c>
       <c r="GT6" s="24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="GV6" s="25">
         <v>18</v>
@@ -6129,7 +6132,7 @@
         <v>8</v>
       </c>
       <c r="HB6" s="25" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="HD6" s="25">
         <v>110</v>
@@ -6150,7 +6153,7 @@
         <v>8</v>
       </c>
       <c r="HJ6" s="25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="HL6" s="25">
         <v>146</v>
@@ -6171,7 +6174,7 @@
         <v>8</v>
       </c>
       <c r="HR6" s="25" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="HT6" s="25">
         <v>146</v>
@@ -6186,13 +6189,13 @@
         <v>80</v>
       </c>
       <c r="HX6" s="25" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="HY6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="HZ6" s="25" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="IB6" s="25">
         <v>94</v>
@@ -6207,13 +6210,13 @@
         <v>100</v>
       </c>
       <c r="IF6" s="25" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="IG6" s="25" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="IH6" s="25" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="IJ6" s="25">
         <v>110</v>
@@ -6228,13 +6231,13 @@
         <v>125</v>
       </c>
       <c r="IN6" s="25" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="IO6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="IP6" s="25" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="IR6" s="25">
         <v>150</v>
@@ -6249,13 +6252,13 @@
         <v>30</v>
       </c>
       <c r="IV6" s="25" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="IW6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="IX6" s="25" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="IZ6" s="25">
         <v>210</v>
@@ -6276,7 +6279,7 @@
         <v>8</v>
       </c>
       <c r="JF6" s="25" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="JH6" s="25">
         <v>110</v>
@@ -6297,7 +6300,7 @@
         <v>8</v>
       </c>
       <c r="JN6" s="25" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="JP6" s="24">
         <v>120</v>
@@ -6318,7 +6321,7 @@
         <v>8</v>
       </c>
       <c r="JV6" s="24" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="JX6" s="25">
         <v>180</v>
@@ -6339,7 +6342,7 @@
         <v>8</v>
       </c>
       <c r="KD6" s="25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="KF6" s="25">
         <v>390</v>
@@ -6360,7 +6363,7 @@
         <v>8</v>
       </c>
       <c r="KL6" s="25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="KN6" s="25">
         <v>390</v>
@@ -6381,7 +6384,7 @@
         <v>8</v>
       </c>
       <c r="KT6" s="25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="KV6" s="25">
         <v>120</v>
@@ -6402,7 +6405,7 @@
         <v>8</v>
       </c>
       <c r="LB6" s="25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="LD6" s="25">
         <v>220</v>
@@ -6420,10 +6423,10 @@
         <v>8</v>
       </c>
       <c r="LI6" s="25" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="LJ6" s="25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="LL6" s="25">
         <v>182</v>
@@ -6441,10 +6444,10 @@
         <v>8</v>
       </c>
       <c r="LQ6" s="25" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="LR6" s="25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="LT6" s="25">
         <v>99</v>
@@ -6465,7 +6468,7 @@
         <v>8</v>
       </c>
       <c r="LZ6" s="25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="MB6" s="25">
         <v>450</v>
@@ -6486,7 +6489,7 @@
         <v>8</v>
       </c>
       <c r="MH6" s="25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="MJ6" s="25">
         <v>1280</v>
@@ -6501,13 +6504,13 @@
         <v>400</v>
       </c>
       <c r="MN6" s="25" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="MO6" s="25" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="MP6" s="25" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="MR6" s="25">
         <v>1450</v>
@@ -6522,13 +6525,13 @@
         <v>700</v>
       </c>
       <c r="MV6" s="25" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="MW6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="MX6" s="25" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="MZ6" s="25">
         <v>1450</v>
@@ -6543,13 +6546,13 @@
         <v>500</v>
       </c>
       <c r="ND6" s="25" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="NE6" s="25" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="NF6" s="25" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="NH6" s="25">
         <v>88</v>
@@ -6570,7 +6573,7 @@
         <v>8</v>
       </c>
       <c r="NN6" s="25" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="NP6" s="25">
         <v>1650</v>
@@ -6585,13 +6588,13 @@
         <v>500</v>
       </c>
       <c r="NT6" s="25" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="NU6" s="25" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="NV6" s="25" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="NX6" s="25">
         <v>400</v>
@@ -6606,13 +6609,13 @@
         <v>550</v>
       </c>
       <c r="OB6" s="25" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="OC6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="OD6" s="25" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="OF6" s="25">
         <v>2250</v>
@@ -6627,13 +6630,13 @@
         <v>450</v>
       </c>
       <c r="OJ6" s="25" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="OK6" s="25" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="OL6" s="25" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="ON6" s="25">
         <v>800</v>
@@ -6648,13 +6651,13 @@
         <v>360</v>
       </c>
       <c r="OR6" s="25" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="OS6" s="25" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="OT6" s="25" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="OV6" s="25">
         <v>950</v>
@@ -6669,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="OZ6" s="25" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="PA6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="PB6" s="25" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="PD6" s="25">
         <v>1800</v>
@@ -6690,13 +6693,13 @@
         <v>450</v>
       </c>
       <c r="PH6" s="25" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="PI6" s="25" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="PJ6" s="25" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="3:426" ht="30.75" x14ac:dyDescent="0.25">
@@ -6884,7 +6887,7 @@
       <c r="BT7" s="8"/>
       <c r="BU7" s="8"/>
       <c r="BV7" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="BW7" s="2"/>
       <c r="BX7" s="7" t="s">
@@ -7048,7 +7051,7 @@
       <c r="EF7" s="33"/>
       <c r="EG7" s="33"/>
       <c r="EH7" s="25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="EJ7" s="42"/>
       <c r="EK7" s="42"/>
@@ -7057,7 +7060,7 @@
       <c r="EN7" s="42"/>
       <c r="EO7" s="42"/>
       <c r="EP7" s="24" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="ER7" s="26" t="s">
         <v>10</v>
@@ -7087,7 +7090,7 @@
       <c r="FD7" s="33"/>
       <c r="FE7" s="33"/>
       <c r="FF7" s="25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="FH7" s="26" t="s">
         <v>10</v>
@@ -7117,7 +7120,7 @@
       <c r="FT7" s="33"/>
       <c r="FU7" s="33"/>
       <c r="FV7" s="25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="FX7" s="33"/>
       <c r="FY7" s="33"/>
@@ -7126,7 +7129,7 @@
       <c r="GB7" s="33"/>
       <c r="GC7" s="33"/>
       <c r="GD7" s="25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="GF7" s="33"/>
       <c r="GG7" s="33"/>
@@ -7135,7 +7138,7 @@
       <c r="GJ7" s="33"/>
       <c r="GK7" s="33"/>
       <c r="GL7" s="25" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="GN7" s="42"/>
       <c r="GO7" s="42"/>
@@ -7144,7 +7147,7 @@
       <c r="GR7" s="42"/>
       <c r="GS7" s="42"/>
       <c r="GT7" s="24" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="GV7" s="26" t="s">
         <v>10</v>
@@ -7342,7 +7345,7 @@
       <c r="JT7" s="33"/>
       <c r="JU7" s="33"/>
       <c r="JV7" s="25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="JX7" s="26" t="s">
         <v>10</v>
@@ -7726,7 +7729,7 @@
     <row r="8" spans="3:426" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E8" s="9">
         <v>127</v>
@@ -7792,13 +7795,13 @@
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AC8" s="9">
         <v>127</v>
       </c>
       <c r="AD8" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE8" s="9">
         <v>50</v>
@@ -8105,7 +8108,7 @@
       <c r="EN8" s="33"/>
       <c r="EO8" s="33"/>
       <c r="EP8" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="ER8" s="27">
         <v>15</v>
@@ -8240,7 +8243,7 @@
       <c r="GR8" s="33"/>
       <c r="GS8" s="33"/>
       <c r="GT8" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="GV8" s="27">
         <v>5</v>
@@ -9817,7 +9820,7 @@
         <v>8</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="17" t="s">
@@ -9835,7 +9838,7 @@
         <v>8</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X10" s="12"/>
       <c r="Y10" s="15" t="s">
@@ -9853,7 +9856,7 @@
         <v>8</v>
       </c>
       <c r="AE10" s="17" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="AF10" s="18"/>
       <c r="AG10" s="17" t="s">
@@ -9871,7 +9874,7 @@
         <v>8</v>
       </c>
       <c r="AM10" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AN10" s="12"/>
       <c r="AO10" s="15" t="s">
@@ -9883,13 +9886,13 @@
         <v>8</v>
       </c>
       <c r="AS10" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AT10" s="16" t="s">
         <v>8</v>
       </c>
       <c r="AU10" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AV10" s="18"/>
       <c r="AW10" s="17" t="s">
@@ -9901,17 +9904,17 @@
         <v>8</v>
       </c>
       <c r="BA10" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="BB10" s="16" t="s">
         <v>8</v>
       </c>
       <c r="BC10" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="BD10" s="18"/>
       <c r="BE10" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="BF10" s="19"/>
       <c r="BG10" s="2"/>
@@ -9919,13 +9922,13 @@
         <v>8</v>
       </c>
       <c r="BI10" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="BJ10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="BK10" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="BL10" s="12"/>
       <c r="BM10" s="15" t="s">
@@ -9961,7 +9964,7 @@
         <v>8</v>
       </c>
       <c r="CA10" s="15" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="CB10" s="12"/>
       <c r="CC10" s="15" t="s">
@@ -9979,7 +9982,7 @@
         <v>8</v>
       </c>
       <c r="CI10" s="17" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="CJ10" s="18"/>
       <c r="CK10" s="17" t="s">
@@ -9997,7 +10000,7 @@
         <v>8</v>
       </c>
       <c r="CQ10" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="CR10" s="18"/>
       <c r="CS10" s="17" t="s">
@@ -10015,7 +10018,7 @@
         <v>8</v>
       </c>
       <c r="CY10" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="CZ10" s="18"/>
       <c r="DA10" s="17" t="s">
@@ -10033,11 +10036,11 @@
         <v>8</v>
       </c>
       <c r="DG10" s="17" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="DH10" s="18"/>
       <c r="DI10" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="DJ10" s="19"/>
       <c r="DK10" s="2"/>
@@ -10045,13 +10048,13 @@
         <v>8</v>
       </c>
       <c r="DM10" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="DN10" s="16" t="s">
         <v>8</v>
       </c>
       <c r="DO10" s="17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="DP10" s="18"/>
       <c r="DQ10" s="17" t="s">
@@ -10069,11 +10072,11 @@
         <v>8</v>
       </c>
       <c r="DW10" s="15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="DX10" s="12"/>
       <c r="DY10" s="15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="DZ10" s="13"/>
       <c r="EA10" s="2"/>
@@ -10125,11 +10128,11 @@
         <v>8</v>
       </c>
       <c r="EU10" s="32" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="EV10" s="37"/>
       <c r="EW10" s="32" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="EX10" s="38"/>
       <c r="EZ10" s="28" t="s">
@@ -10159,7 +10162,7 @@
         <v>8</v>
       </c>
       <c r="FK10" s="31" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="FL10" s="34"/>
       <c r="FM10" s="31" t="s">
@@ -10248,7 +10251,7 @@
         <v>8</v>
       </c>
       <c r="GY10" s="32" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="GZ10" s="37"/>
       <c r="HA10" s="32" t="s">
@@ -10262,10 +10265,10 @@
         <v>8</v>
       </c>
       <c r="HF10" s="36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="HG10" s="32" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="HH10" s="37"/>
       <c r="HI10" s="32" t="s">
@@ -10282,7 +10285,7 @@
         <v>8</v>
       </c>
       <c r="HO10" s="32" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="HP10" s="37"/>
       <c r="HQ10" s="32" t="s">
@@ -10293,13 +10296,13 @@
         <v>8</v>
       </c>
       <c r="HU10" s="30" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="HV10" s="30" t="s">
         <v>8</v>
       </c>
       <c r="HW10" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="HX10" s="34"/>
       <c r="HY10" s="31" t="s">
@@ -10316,7 +10319,7 @@
         <v>8</v>
       </c>
       <c r="IE10" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="IF10" s="37"/>
       <c r="IG10" s="32" t="s">
@@ -10333,11 +10336,11 @@
         <v>8</v>
       </c>
       <c r="IM10" s="32" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="IN10" s="37"/>
       <c r="IO10" s="32" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="IP10" s="38"/>
       <c r="IR10" s="41" t="s">
@@ -10350,11 +10353,11 @@
         <v>8</v>
       </c>
       <c r="IU10" s="32" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="IV10" s="37"/>
       <c r="IW10" s="32" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="IX10" s="38"/>
       <c r="IZ10" s="41" t="s">
@@ -10367,11 +10370,11 @@
         <v>8</v>
       </c>
       <c r="JC10" s="32" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="JD10" s="37"/>
       <c r="JE10" s="32" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="JF10" s="38"/>
       <c r="JH10" s="41" t="s">
@@ -10384,11 +10387,11 @@
         <v>8</v>
       </c>
       <c r="JK10" s="32" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="JL10" s="37"/>
       <c r="JM10" s="32" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="JN10" s="38"/>
       <c r="JP10" s="28" t="s">
@@ -10409,7 +10412,7 @@
       </c>
       <c r="JV10" s="35"/>
       <c r="JX10" s="43" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="JY10" s="30" t="s">
         <v>8</v>
@@ -10418,7 +10421,7 @@
         <v>8</v>
       </c>
       <c r="KA10" s="31" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="KB10" s="34"/>
       <c r="KC10" s="31" t="s">
@@ -10426,16 +10429,16 @@
       </c>
       <c r="KD10" s="35"/>
       <c r="KF10" s="43" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="KG10" s="30" t="s">
         <v>8</v>
       </c>
       <c r="KH10" s="43" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="KI10" s="31" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="KJ10" s="34"/>
       <c r="KK10" s="31" t="s">
@@ -10443,16 +10446,16 @@
       </c>
       <c r="KL10" s="35"/>
       <c r="KN10" s="43" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="KO10" s="41" t="s">
         <v>8</v>
       </c>
       <c r="KP10" s="36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="KQ10" s="32" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="KR10" s="37"/>
       <c r="KS10" s="32" t="s">
@@ -10460,16 +10463,16 @@
       </c>
       <c r="KT10" s="38"/>
       <c r="KV10" s="43" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="KW10" s="30" t="s">
         <v>8</v>
       </c>
       <c r="KX10" s="43" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="KY10" s="31" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="KZ10" s="34"/>
       <c r="LA10" s="31" t="s">
@@ -10477,16 +10480,16 @@
       </c>
       <c r="LB10" s="35"/>
       <c r="LD10" s="43" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="LE10" s="30" t="s">
         <v>8</v>
       </c>
       <c r="LF10" s="43" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="LG10" s="31" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="LH10" s="34"/>
       <c r="LI10" s="31" t="s">
@@ -10497,17 +10500,17 @@
         <v>8</v>
       </c>
       <c r="LM10" s="36" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="LN10" s="41" t="s">
         <v>8</v>
       </c>
       <c r="LO10" s="32" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="LP10" s="37"/>
       <c r="LQ10" s="32" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="LR10" s="38"/>
       <c r="LT10" s="30" t="s">
@@ -10524,11 +10527,11 @@
       </c>
       <c r="LX10" s="34"/>
       <c r="LY10" s="31" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="LZ10" s="35"/>
       <c r="MB10" s="36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="MC10" s="41" t="s">
         <v>8</v>
@@ -10537,15 +10540,15 @@
         <v>8</v>
       </c>
       <c r="ME10" s="32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="MF10" s="37"/>
       <c r="MG10" s="32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="MH10" s="38"/>
       <c r="MJ10" s="43" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="MK10" s="30" t="s">
         <v>8</v>
@@ -10554,24 +10557,24 @@
         <v>8</v>
       </c>
       <c r="MM10" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="MN10" s="34"/>
       <c r="MO10" s="31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="MP10" s="35"/>
       <c r="MR10" s="43" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="MS10" s="30" t="s">
         <v>8</v>
       </c>
       <c r="MT10" s="43" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="MU10" s="31" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="MV10" s="34"/>
       <c r="MW10" s="31" t="s">
@@ -10579,16 +10582,16 @@
       </c>
       <c r="MX10" s="35"/>
       <c r="MZ10" s="43" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="NA10" s="30" t="s">
         <v>8</v>
       </c>
       <c r="NB10" s="43" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="NC10" s="31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="ND10" s="34"/>
       <c r="NE10" s="31" t="s">
@@ -10605,7 +10608,7 @@
         <v>8</v>
       </c>
       <c r="NK10" s="31" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="NL10" s="34"/>
       <c r="NM10" s="31" t="s">
@@ -10613,20 +10616,20 @@
       </c>
       <c r="NN10" s="35"/>
       <c r="NP10" s="36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="NQ10" s="41" t="s">
         <v>8</v>
       </c>
       <c r="NR10" s="36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="NS10" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="NT10" s="37"/>
       <c r="NU10" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="NV10" s="38"/>
       <c r="NX10" s="30" t="s">
@@ -10643,7 +10646,7 @@
       </c>
       <c r="OB10" s="34"/>
       <c r="OC10" s="31" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="OD10" s="35"/>
       <c r="OF10" s="41" t="s">
@@ -10656,11 +10659,11 @@
         <v>8</v>
       </c>
       <c r="OI10" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="OJ10" s="37"/>
       <c r="OK10" s="32" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="OL10" s="38"/>
       <c r="ON10" s="30" t="s">
@@ -10673,11 +10676,11 @@
         <v>8</v>
       </c>
       <c r="OQ10" s="31" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="OR10" s="34"/>
       <c r="OS10" s="31" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="OT10" s="35"/>
       <c r="OV10" s="30" t="s">
@@ -10687,14 +10690,14 @@
         <v>8</v>
       </c>
       <c r="OX10" s="43" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="OY10" s="31" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="OZ10" s="34"/>
       <c r="PA10" s="31" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="PB10" s="35"/>
       <c r="PD10" s="30" t="s">
@@ -10704,14 +10707,14 @@
         <v>8</v>
       </c>
       <c r="PF10" s="43" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="PG10" s="31" t="s">
         <v>16</v>
       </c>
       <c r="PH10" s="34"/>
       <c r="PI10" s="31" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="PJ10" s="35"/>
     </row>
@@ -10721,7 +10724,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="17" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -10739,7 +10742,7 @@
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
       <c r="W11" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
@@ -10757,7 +10760,7 @@
       <c r="AK11" s="20"/>
       <c r="AL11" s="20"/>
       <c r="AM11" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AN11" s="18"/>
       <c r="AO11" s="18"/>
@@ -10765,7 +10768,7 @@
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
       <c r="AS11" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
@@ -10783,27 +10786,27 @@
       <c r="BG11" s="2"/>
       <c r="BH11" s="20"/>
       <c r="BI11" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="BJ11" s="20"/>
       <c r="BK11" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="BL11" s="18"/>
       <c r="BM11" s="18"/>
       <c r="BN11" s="19"/>
       <c r="BO11" s="2"/>
       <c r="BP11" s="21" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="BQ11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="BR11" s="21" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="BS11" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="BT11" s="12"/>
       <c r="BU11" s="15" t="s">
@@ -10815,7 +10818,7 @@
       <c r="BY11" s="21"/>
       <c r="BZ11" s="21"/>
       <c r="CA11" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="CB11" s="12"/>
       <c r="CC11" s="12"/>
@@ -10855,10 +10858,12 @@
       <c r="DK11" s="2"/>
       <c r="DL11" s="2"/>
       <c r="DM11" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="DN11" s="2"/>
-      <c r="DO11" s="2"/>
+      <c r="DO11" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="DP11" s="2"/>
       <c r="DQ11" s="2"/>
       <c r="DR11" s="2"/>
@@ -10867,7 +10872,7 @@
       <c r="DU11" s="20"/>
       <c r="DV11" s="20"/>
       <c r="DW11" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="DX11" s="18"/>
       <c r="DY11" s="18"/>
@@ -10883,11 +10888,11 @@
         <v>8</v>
       </c>
       <c r="EE11" s="31" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="EF11" s="34"/>
       <c r="EG11" s="31" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="EH11" s="35"/>
       <c r="EJ11" s="28" t="s">
@@ -10917,7 +10922,7 @@
         <v>8</v>
       </c>
       <c r="FC11" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="FD11" s="34"/>
       <c r="FE11" s="31" t="s">
@@ -10928,13 +10933,13 @@
       <c r="FI11" s="43"/>
       <c r="FJ11" s="43"/>
       <c r="FK11" s="31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="FL11" s="34"/>
       <c r="FM11" s="34"/>
       <c r="FN11" s="35"/>
       <c r="FP11" s="43" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="FQ11" s="30" t="s">
         <v>8</v>
@@ -10943,7 +10948,7 @@
         <v>8</v>
       </c>
       <c r="FS11" s="31" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="FT11" s="34"/>
       <c r="FU11" s="31" t="s">
@@ -10951,7 +10956,7 @@
       </c>
       <c r="FV11" s="35"/>
       <c r="FX11" s="43" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="FY11" s="30" t="s">
         <v>8</v>
@@ -10960,7 +10965,7 @@
         <v>8</v>
       </c>
       <c r="GA11" s="31" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="GB11" s="34"/>
       <c r="GC11" s="31" t="s">
@@ -10977,7 +10982,7 @@
         <v>8</v>
       </c>
       <c r="GI11" s="31" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="GJ11" s="34"/>
       <c r="GK11" s="31" t="s">
@@ -11005,7 +11010,7 @@
       <c r="HU11" s="43"/>
       <c r="HV11" s="43"/>
       <c r="HW11" s="31" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="HX11" s="34"/>
       <c r="HY11" s="34"/>
@@ -11020,41 +11025,41 @@
         <v>8</v>
       </c>
       <c r="JS11" s="31" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="JT11" s="34"/>
       <c r="JU11" s="31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="JV11" s="35"/>
       <c r="JX11" s="43"/>
       <c r="JY11" s="43"/>
       <c r="JZ11" s="43"/>
       <c r="KA11" s="31" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="KB11" s="34"/>
       <c r="KC11" s="34"/>
       <c r="KD11" s="35"/>
       <c r="KF11" s="43" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="KG11" s="43"/>
       <c r="KH11" s="43"/>
       <c r="KI11" s="31" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="KJ11" s="34"/>
       <c r="KK11" s="34"/>
       <c r="KL11" s="35"/>
       <c r="KN11" s="43" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="KV11" s="36"/>
       <c r="KW11" s="36"/>
       <c r="KX11" s="36"/>
       <c r="KY11" s="32" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="KZ11" s="37"/>
       <c r="LA11" s="37"/>
@@ -11062,16 +11067,16 @@
       <c r="LD11" s="36"/>
       <c r="LE11" s="36"/>
       <c r="LF11" s="36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="LG11" s="32" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="LH11" s="37"/>
       <c r="LI11" s="37"/>
       <c r="LJ11" s="38"/>
       <c r="LM11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="LT11" s="36"/>
       <c r="LU11" s="36"/>
@@ -11079,25 +11084,25 @@
       <c r="LW11" s="37"/>
       <c r="LX11" s="37"/>
       <c r="LY11" s="32" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="LZ11" s="38"/>
       <c r="MJ11" s="36"/>
       <c r="MK11" s="36"/>
       <c r="ML11" s="36"/>
       <c r="MM11" s="32" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="MN11" s="37"/>
       <c r="MO11" s="32" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="MP11" s="38"/>
       <c r="MR11" s="43"/>
       <c r="MS11" s="43"/>
       <c r="MT11" s="43"/>
       <c r="MU11" s="31" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="MV11" s="34"/>
       <c r="MW11" s="34"/>
@@ -11106,7 +11111,7 @@
       <c r="NA11" s="36"/>
       <c r="NB11" s="36"/>
       <c r="NC11" s="32" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="ND11" s="37"/>
       <c r="NE11" s="37"/>
@@ -11115,19 +11120,19 @@
       <c r="NI11" s="43"/>
       <c r="NJ11" s="43"/>
       <c r="NK11" s="31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="NL11" s="34"/>
       <c r="NM11" s="34"/>
       <c r="NN11" s="35"/>
       <c r="NS11" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="NX11" s="43"/>
       <c r="NY11" s="43"/>
       <c r="NZ11" s="43"/>
       <c r="OA11" s="31" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="OB11" s="34"/>
       <c r="OC11" s="34"/>
@@ -11136,7 +11141,7 @@
       <c r="OO11" s="36"/>
       <c r="OP11" s="36"/>
       <c r="OQ11" s="32" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="OR11" s="37"/>
       <c r="OS11" s="37"/>
@@ -11145,7 +11150,7 @@
       <c r="OW11" s="36"/>
       <c r="OX11" s="36"/>
       <c r="OY11" s="32" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="OZ11" s="37"/>
       <c r="PA11" s="37"/>
@@ -11154,7 +11159,7 @@
       <c r="PE11" s="36"/>
       <c r="PF11" s="36"/>
       <c r="PG11" s="32" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="PH11" s="37"/>
       <c r="PI11" s="37"/>
@@ -11204,7 +11209,7 @@
       <c r="AQ12" s="22"/>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
@@ -11222,7 +11227,7 @@
       <c r="BG12" s="22"/>
       <c r="BH12" s="2"/>
       <c r="BI12" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="BJ12" s="2"/>
       <c r="BK12" s="2"/>
@@ -11231,12 +11236,12 @@
       <c r="BN12" s="2"/>
       <c r="BO12" s="22"/>
       <c r="BP12" s="21" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="BQ12" s="21"/>
       <c r="BR12" s="21"/>
       <c r="BS12" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="BT12" s="12"/>
       <c r="BU12" s="12"/>
@@ -11246,7 +11251,7 @@
       <c r="BY12" s="20"/>
       <c r="BZ12" s="20"/>
       <c r="CA12" s="17" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="CB12" s="18"/>
       <c r="CC12" s="18"/>
@@ -11286,7 +11291,7 @@
       <c r="DK12" s="22"/>
       <c r="DL12" s="2"/>
       <c r="DM12" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="DN12" s="2"/>
       <c r="DO12" s="2"/>
@@ -11306,7 +11311,7 @@
       <c r="EC12" s="36"/>
       <c r="ED12" s="36"/>
       <c r="EE12" s="32" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="EF12" s="37"/>
       <c r="EG12" s="37"/>
@@ -11322,7 +11327,7 @@
         <v>8</v>
       </c>
       <c r="EM12" s="32" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="EN12" s="37"/>
       <c r="EO12" s="32" t="s">
@@ -11335,7 +11340,7 @@
       <c r="FA12" s="36"/>
       <c r="FB12" s="36"/>
       <c r="FC12" s="32" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="FD12" s="37"/>
       <c r="FE12" s="37"/>
@@ -11345,31 +11350,31 @@
       <c r="FI12" s="43"/>
       <c r="FJ12" s="43"/>
       <c r="FK12" s="31" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="FL12" s="34"/>
       <c r="FM12" s="34"/>
       <c r="FN12" s="35"/>
       <c r="FO12" s="39"/>
       <c r="FP12" s="36" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="FQ12" s="36"/>
       <c r="FR12" s="36"/>
       <c r="FS12" s="32" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="FT12" s="37"/>
       <c r="FU12" s="37"/>
       <c r="FV12" s="38"/>
       <c r="FW12" s="39"/>
       <c r="FX12" s="36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="FY12" s="36"/>
       <c r="FZ12" s="36"/>
       <c r="GA12" s="32" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="GB12" s="37"/>
       <c r="GC12" s="37"/>
@@ -11379,14 +11384,14 @@
       <c r="GG12" s="36"/>
       <c r="GH12" s="36"/>
       <c r="GI12" s="32" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="GJ12" s="37"/>
       <c r="GK12" s="37"/>
       <c r="GL12" s="38"/>
       <c r="GM12" s="39"/>
       <c r="GN12" s="43" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="GO12" s="30" t="s">
         <v>8</v>
@@ -11395,7 +11400,7 @@
         <v>8</v>
       </c>
       <c r="GQ12" s="31" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="GR12" s="34"/>
       <c r="GS12" s="31" t="s">
@@ -11410,7 +11415,7 @@
       <c r="HU12" s="36"/>
       <c r="HV12" s="36"/>
       <c r="HW12" s="32" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="HX12" s="37"/>
       <c r="HY12" s="37"/>
@@ -11425,7 +11430,7 @@
       <c r="JQ12" s="36"/>
       <c r="JR12" s="36"/>
       <c r="JS12" s="32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="JT12" s="37"/>
       <c r="JU12" s="37"/>
@@ -11435,31 +11440,31 @@
       <c r="JY12" s="36"/>
       <c r="JZ12" s="36"/>
       <c r="KA12" s="32" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="KB12" s="37"/>
       <c r="KC12" s="37"/>
       <c r="KD12" s="38"/>
       <c r="KE12" s="39"/>
       <c r="KF12" s="36" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="KG12" s="36"/>
       <c r="KH12" s="36"/>
       <c r="KI12" s="32" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="KJ12" s="37"/>
       <c r="KK12" s="37"/>
       <c r="KL12" s="38"/>
       <c r="KM12" s="39"/>
       <c r="KN12" s="36" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="KU12" s="39"/>
       <c r="LC12" s="39"/>
       <c r="LF12" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="LK12" s="39"/>
       <c r="LS12" s="39"/>
@@ -11470,7 +11475,7 @@
       <c r="MS12" s="36"/>
       <c r="MT12" s="36"/>
       <c r="MU12" s="32" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="MV12" s="37"/>
       <c r="MW12" s="37"/>
@@ -11481,21 +11486,21 @@
       <c r="NI12" s="36"/>
       <c r="NJ12" s="36"/>
       <c r="NK12" s="32" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="NL12" s="37"/>
       <c r="NM12" s="37"/>
       <c r="NN12" s="38"/>
       <c r="NO12" s="39"/>
       <c r="NS12" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="NW12" s="39"/>
       <c r="NX12" s="36"/>
       <c r="NY12" s="36"/>
       <c r="NZ12" s="36"/>
       <c r="OA12" s="32" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="OB12" s="37"/>
       <c r="OC12" s="37"/>
@@ -11549,7 +11554,7 @@
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
@@ -11567,7 +11572,7 @@
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
       <c r="BI13" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="BJ13" s="2"/>
       <c r="BK13" s="2"/>
@@ -11579,7 +11584,7 @@
       <c r="BQ13" s="20"/>
       <c r="BR13" s="20"/>
       <c r="BS13" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="BT13" s="18"/>
       <c r="BU13" s="18"/>
@@ -11627,7 +11632,7 @@
       <c r="DK13" s="2"/>
       <c r="DL13" s="2"/>
       <c r="DM13" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="DN13" s="2"/>
       <c r="DO13" s="2"/>
@@ -11651,21 +11656,21 @@
       <c r="FI13" s="36"/>
       <c r="FJ13" s="36"/>
       <c r="FK13" s="32" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="FL13" s="37"/>
       <c r="FM13" s="37"/>
       <c r="FN13" s="38"/>
       <c r="FX13" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="GN13" s="36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="GO13" s="43"/>
       <c r="GP13" s="43"/>
       <c r="GQ13" s="31" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="GR13" s="34"/>
       <c r="GS13" s="34"/>
@@ -11807,15 +11812,15 @@
       <c r="ED14" s="2"/>
       <c r="EE14" s="2"/>
       <c r="FX14" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="GN14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="GO14" s="36"/>
       <c r="GP14" s="36"/>
       <c r="GQ14" s="32" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="GR14" s="37"/>
       <c r="GS14" s="37"/>
@@ -11823,7 +11828,7 @@
     </row>
     <row r="15" spans="3:426" x14ac:dyDescent="0.2">
       <c r="GN15" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
